--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Lgr5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,40 +537,40 @@
         <v>7.522864</v>
       </c>
       <c r="I2">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J2">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08037899999999999</v>
+        <v>0.8326193333333333</v>
       </c>
       <c r="N2">
-        <v>0.241137</v>
+        <v>2.497858</v>
       </c>
       <c r="O2">
-        <v>0.03101234696192509</v>
+        <v>0.9388124812781204</v>
       </c>
       <c r="P2">
-        <v>0.03101234696192509</v>
+        <v>0.9388124812781203</v>
       </c>
       <c r="Q2">
-        <v>0.201560095152</v>
+        <v>2.087894002812444</v>
       </c>
       <c r="R2">
-        <v>1.814040856368</v>
+        <v>18.791046025312</v>
       </c>
       <c r="S2">
-        <v>0.03082559123013256</v>
+        <v>0.8731608132089121</v>
       </c>
       <c r="T2">
-        <v>0.03082559123013256</v>
+        <v>0.873160813208912</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +584,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,45 +599,45 @@
         <v>7.522864</v>
       </c>
       <c r="I3">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J3">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.8326193333333333</v>
+        <v>0.05426633333333333</v>
       </c>
       <c r="N3">
-        <v>2.497858</v>
+        <v>0.162799</v>
       </c>
       <c r="O3">
-        <v>0.3212465899369251</v>
+        <v>0.0611875187218796</v>
       </c>
       <c r="P3">
-        <v>0.3212465899369251</v>
+        <v>0.06118751872187959</v>
       </c>
       <c r="Q3">
-        <v>2.087894002812444</v>
+        <v>0.1360794151484444</v>
       </c>
       <c r="R3">
-        <v>18.791046025312</v>
+        <v>1.224714736336</v>
       </c>
       <c r="S3">
-        <v>0.3193120494113987</v>
+        <v>0.05690864221649017</v>
       </c>
       <c r="T3">
-        <v>0.3193120494113987</v>
+        <v>0.05690864221649016</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,7 +646,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +655,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.507621333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H4">
-        <v>7.522864</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I4">
-        <v>0.9939780200440224</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J4">
-        <v>0.9939780200440224</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.678840333333333</v>
+        <v>0.8326193333333333</v>
       </c>
       <c r="N4">
-        <v>5.036521</v>
+        <v>2.497858</v>
       </c>
       <c r="O4">
-        <v>0.6477410631011499</v>
+        <v>0.9388124812781204</v>
       </c>
       <c r="P4">
-        <v>0.6477410631011499</v>
+        <v>0.9388124812781203</v>
       </c>
       <c r="Q4">
-        <v>4.209895835127111</v>
+        <v>0.1569856571237777</v>
       </c>
       <c r="R4">
-        <v>37.889062516144</v>
+        <v>1.412870914114</v>
       </c>
       <c r="S4">
-        <v>0.6438403794024911</v>
+        <v>0.0656516680692083</v>
       </c>
       <c r="T4">
-        <v>0.6438403794024911</v>
+        <v>0.06565166806920827</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,25 +708,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01519233333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H5">
-        <v>0.045577</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I5">
-        <v>0.006021979955977724</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J5">
-        <v>0.006021979955977723</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,152 +735,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.08037899999999999</v>
+        <v>0.05426633333333333</v>
       </c>
       <c r="N5">
-        <v>0.241137</v>
+        <v>0.162799</v>
       </c>
       <c r="O5">
-        <v>0.03101234696192509</v>
+        <v>0.0611875187218796</v>
       </c>
       <c r="P5">
-        <v>0.03101234696192509</v>
+        <v>0.06118751872187959</v>
       </c>
       <c r="Q5">
-        <v>0.001221144561</v>
+        <v>0.01023160964077778</v>
       </c>
       <c r="R5">
-        <v>0.010990301049</v>
+        <v>0.09208448676699998</v>
       </c>
       <c r="S5">
-        <v>0.0001867557317925396</v>
+        <v>0.004278876505389434</v>
       </c>
       <c r="T5">
-        <v>0.0001867557317925396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.01519233333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.045577</v>
-      </c>
-      <c r="I6">
-        <v>0.006021979955977724</v>
-      </c>
-      <c r="J6">
-        <v>0.006021979955977723</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.8326193333333333</v>
-      </c>
-      <c r="N6">
-        <v>2.497858</v>
-      </c>
-      <c r="O6">
-        <v>0.3212465899369251</v>
-      </c>
-      <c r="P6">
-        <v>0.3212465899369251</v>
-      </c>
-      <c r="Q6">
-        <v>0.01264943045177778</v>
-      </c>
-      <c r="R6">
-        <v>0.113844874066</v>
-      </c>
-      <c r="S6">
-        <v>0.001934540525526358</v>
-      </c>
-      <c r="T6">
-        <v>0.001934540525526358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01519233333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.045577</v>
-      </c>
-      <c r="I7">
-        <v>0.006021979955977724</v>
-      </c>
-      <c r="J7">
-        <v>0.006021979955977723</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>1.678840333333333</v>
-      </c>
-      <c r="N7">
-        <v>5.036521</v>
-      </c>
-      <c r="O7">
-        <v>0.6477410631011499</v>
-      </c>
-      <c r="P7">
-        <v>0.6477410631011499</v>
-      </c>
-      <c r="Q7">
-        <v>0.02550550195744445</v>
-      </c>
-      <c r="R7">
-        <v>0.229549517617</v>
-      </c>
-      <c r="S7">
-        <v>0.003900683698658827</v>
-      </c>
-      <c r="T7">
-        <v>0.003900683698658826</v>
+        <v>0.004278876505389433</v>
       </c>
     </row>
   </sheetData>
